--- a/data/PT_ADP.xlsx
+++ b/data/PT_ADP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Диатрема Гриб" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,9 @@
     <sheet name="Ломоносовская" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="ЦНИГРИ" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="253">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -256,196 +259,199 @@
     <t xml:space="preserve">244-69</t>
   </si>
   <si>
+    <t xml:space="preserve">pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 91 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy K44 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy K44 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy K44 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy K44 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy K44 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy K44 31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy K44 34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr-Dy 86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dy 1  60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6 54</t>
+  </si>
+  <si>
     <t xml:space="preserve">P, кбар</t>
   </si>
   <si>
     <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 91 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy K44 15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy K44 28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 94 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy K44 18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy K44 21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy K44 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy K44 31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy K44 34 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr-Dy 86 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy 1  60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6 54</t>
   </si>
   <si>
     <t xml:space="preserve">Lom1 Cpx1 33 </t>
@@ -791,7 +797,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -835,13 +841,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -910,7 +909,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -935,10 +934,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -959,11 +954,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -992,6 +987,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Название организации/удостоверяющего центра, ИНН, ОГРН</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -999,8 +1013,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1054,7 +1068,7 @@
         <v>845.657742962494</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1431,7 @@
         <v>955.952961088281</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1852,1308 +1866,1313 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>34.8456598967831</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>864.578909157267</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <f aca="false">[1]Лист1!B2</f>
+        <v>Название организации/удостоверяющего центра, ИНН, ОГРН</v>
+      </c>
       <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>34.8456598967831</v>
-      </c>
-      <c r="C3" s="9" t="n">
-        <v>864.578909157267</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="7" t="n">
+        <v>33.0015120510945</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>797.786568096557</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>33.0015120510945</v>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>797.786568096557</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="7" t="n">
+        <v>46.0670895704395</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>1036.86483405882</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>46.0670895704395</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>1036.86483405882</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="7" t="n">
+        <v>36.6366475450285</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>858.982207176621</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>36.6366475450285</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>858.982207176621</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="7" t="n">
+        <v>36.5752658332473</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>831.096780141672</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>36.5752658332473</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>831.096780141672</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="7" t="n">
+        <v>49.73664404343</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>1074.14231545047</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>49.73664404343</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <v>1074.14231545047</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="7" t="n">
+        <v>37.3155161940507</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>853.678786250491</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>37.3155161940507</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>853.678786250491</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="7" t="n">
+        <v>29.7844167520817</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>701.792579413496</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>29.7844167520817</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>701.792579413496</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="7" t="n">
+        <v>36.839660119975</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>871.072844033628</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>36.839660119975</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>871.072844033628</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="7" t="n">
+        <v>40.9864021905457</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>896.172814144836</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>40.9864021905457</v>
-      </c>
-      <c r="C12" s="9" t="n">
-        <v>896.172814144836</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="7" t="n">
+        <v>50.5060091118495</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>1093.37178349519</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>50.5060091118495</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>1093.37178349519</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="7" t="n">
+        <v>29.9229306194166</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>709.548330614746</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>29.9229306194166</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>709.548330614746</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="7" t="n">
+        <v>36.532633443377</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>822.394455034782</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>36.532633443377</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>822.394455034782</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="7" t="n">
+        <v>35.1457123666532</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>930.293034683245</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>35.1457123666532</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>930.293034683245</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="7" t="n">
+        <v>35.189748571852</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>813.218452824048</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>35.189748571852</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>813.218452824048</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="7" t="n">
+        <v>37.6041901717624</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>838.434080186312</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>37.6041901717624</v>
-      </c>
-      <c r="C18" s="9" t="n">
-        <v>838.434080186312</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="7" t="n">
+        <v>34.5299973385248</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>840.321877135545</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <v>34.5299973385248</v>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>840.321877135545</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="7" t="n">
+        <v>36.1766707360013</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>841.935492857605</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>36.1766707360013</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>841.935492857605</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="7" t="n">
+        <v>42.4864976475244</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>915.38061475392</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="8" t="n">
-        <v>42.4864976475244</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>915.38061475392</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="7" t="n">
+        <v>36.8410424913268</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>833.511352941679</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="8" t="n">
-        <v>36.8410424913268</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>833.511352941679</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="7" t="n">
+        <v>43.8934214806011</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1040.97542119577</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="8" t="n">
-        <v>43.8934214806011</v>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>1040.97542119577</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="7" t="n">
+        <v>39.4898046776886</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>825.891137808442</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="8" t="n">
-        <v>39.4898046776886</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>825.891137808442</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="7" t="n">
+        <v>35.0215706155658</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>830.19341577596</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="8" t="n">
-        <v>35.0215706155658</v>
-      </c>
-      <c r="C25" s="9" t="n">
-        <v>830.19341577596</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="7" t="n">
+        <v>41.0712653439556</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>918.90699056642</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="8" t="n">
-        <v>41.0712653439556</v>
-      </c>
-      <c r="C26" s="9" t="n">
-        <v>918.90699056642</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="7" t="n">
+        <v>61.1813439555389</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1180.45828708861</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="8" t="n">
-        <v>61.1813439555389</v>
-      </c>
-      <c r="C27" s="9" t="n">
-        <v>1180.45828708861</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="7" t="n">
+        <v>41.6091564074647</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>875.195654579251</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="8" t="n">
-        <v>41.6091564074647</v>
-      </c>
-      <c r="C28" s="9" t="n">
-        <v>875.195654579251</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="7" t="n">
+        <v>44.7294477555567</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>908.542096744113</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="8" t="n">
-        <v>44.7294477555567</v>
-      </c>
-      <c r="C29" s="9" t="n">
-        <v>908.542096744113</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
+      <c r="B29" s="7" t="n">
+        <v>48.1242277843873</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>977.77348278551</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="8" t="n">
-        <v>48.1242277843873</v>
-      </c>
-      <c r="C30" s="9" t="n">
-        <v>977.77348278551</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="7" t="n">
+        <v>48.6593797801681</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>947.16092949158</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="8" t="n">
-        <v>48.6593797801681</v>
-      </c>
-      <c r="C31" s="9" t="n">
-        <v>947.16092949158</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
+      <c r="B31" s="7" t="n">
+        <v>42.3899584684284</v>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>853.293167152069</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="8" t="n">
-        <v>42.3899584684284</v>
-      </c>
-      <c r="C32" s="9" t="n">
-        <v>853.293167152069</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
+      <c r="B32" s="7" t="n">
+        <v>51.7276363400407</v>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1067.99287743975</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="8" t="n">
-        <v>51.7276363400407</v>
-      </c>
-      <c r="C33" s="9" t="n">
-        <v>1067.99287743975</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="7" t="n">
+        <v>50.657084225636</v>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1009.33916485633</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="8" t="n">
-        <v>50.657084225636</v>
-      </c>
-      <c r="C34" s="9" t="n">
-        <v>1009.33916485633</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
+      <c r="B34" s="7" t="n">
+        <v>37.4640579454805</v>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>870.363794785761</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="8" t="n">
-        <v>37.4640579454805</v>
-      </c>
-      <c r="C35" s="9" t="n">
-        <v>870.363794785761</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="7" t="n">
+        <v>58.2473161416227</v>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1097.20691746038</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="8" t="n">
-        <v>58.2473161416227</v>
-      </c>
-      <c r="C36" s="9" t="n">
-        <v>1097.20691746038</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
+      <c r="B36" s="7" t="n">
+        <v>38.0430893036097</v>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>898.949140414263</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="8" t="n">
-        <v>38.0430893036097</v>
-      </c>
-      <c r="C37" s="9" t="n">
-        <v>898.949140414263</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
+      <c r="B37" s="7" t="n">
+        <v>55.4776702939618</v>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>1142.08656880809</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="8" t="n">
-        <v>55.4776702939618</v>
-      </c>
-      <c r="C38" s="9" t="n">
-        <v>1142.08656880809</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
+      <c r="B38" s="7" t="n">
+        <v>56.8026761131715</v>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1153.95852108716</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="8" t="n">
-        <v>56.8026761131715</v>
-      </c>
-      <c r="C39" s="9" t="n">
-        <v>1153.95852108716</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
+      <c r="B39" s="7" t="n">
+        <v>46.8119349098629</v>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>917.854713517091</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="8" t="n">
-        <v>46.8119349098629</v>
-      </c>
-      <c r="C40" s="9" t="n">
-        <v>917.854713517091</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
+      <c r="B40" s="7" t="n">
+        <v>49.2406783751669</v>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>958.084060705638</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="8" t="n">
-        <v>49.2406783751669</v>
-      </c>
-      <c r="C41" s="9" t="n">
-        <v>958.084060705638</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="7" t="n">
+        <v>41.9761737674472</v>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>888.689969198902</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="8" t="n">
-        <v>41.9761737674472</v>
-      </c>
-      <c r="C42" s="9" t="n">
-        <v>888.689969198902</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
+      <c r="B42" s="7" t="n">
+        <v>51.1815654595627</v>
+      </c>
+      <c r="C42" s="8" t="n">
+        <v>1077.38644688288</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="8" t="n">
-        <v>51.1815654595627</v>
-      </c>
-      <c r="C43" s="9" t="n">
-        <v>1077.38644688288</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
+      <c r="B43" s="7" t="n">
+        <v>54.0739998781893</v>
+      </c>
+      <c r="C43" s="8" t="n">
+        <v>1117.04964261004</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="8" t="n">
-        <v>54.0739998781893</v>
-      </c>
-      <c r="C44" s="9" t="n">
-        <v>1117.04964261004</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
+      <c r="B44" s="7" t="n">
+        <v>39.4413900305791</v>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>844.511475218663</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="8" t="n">
-        <v>39.4413900305791</v>
-      </c>
-      <c r="C45" s="9" t="n">
-        <v>844.511475218663</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
+      <c r="B45" s="7" t="n">
+        <v>50.8933479157361</v>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>995.925529168535</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="8" t="n">
-        <v>50.8933479157361</v>
-      </c>
-      <c r="C46" s="9" t="n">
-        <v>995.925529168535</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
+      <c r="B46" s="7" t="n">
+        <v>41.0137191362798</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>862.126918483778</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="8" t="n">
-        <v>41.0137191362798</v>
-      </c>
-      <c r="C47" s="9" t="n">
-        <v>862.126918483778</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
+      <c r="B47" s="7" t="n">
+        <v>41.9841466955642</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>886.663258190222</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="8" t="n">
-        <v>41.9841466955642</v>
-      </c>
-      <c r="C48" s="9" t="n">
-        <v>886.663258190222</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
+      <c r="B48" s="7" t="n">
+        <v>57.7154460325154</v>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1158.56401390724</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="8" t="n">
-        <v>57.7154460325154</v>
-      </c>
-      <c r="C49" s="9" t="n">
-        <v>1158.56401390724</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
+      <c r="B49" s="7" t="n">
+        <v>54.2533927226053</v>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1117.01714449392</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="8" t="n">
-        <v>54.2533927226053</v>
-      </c>
-      <c r="C50" s="9" t="n">
-        <v>1117.01714449392</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
+      <c r="B50" s="7" t="n">
+        <v>52.4389522459962</v>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1085.28291006699</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="8" t="n">
-        <v>52.4389522459962</v>
-      </c>
-      <c r="C51" s="9" t="n">
-        <v>1085.28291006699</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
+      <c r="B51" s="7" t="n">
+        <v>40.1557041635522</v>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>887.609101391183</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="8" t="n">
-        <v>40.1557041635522</v>
-      </c>
-      <c r="C52" s="9" t="n">
-        <v>887.609101391183</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
+      <c r="B52" s="7" t="n">
+        <v>37.5374940332502</v>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>881.018429738117</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="8" t="n">
-        <v>37.5374940332502</v>
-      </c>
-      <c r="C53" s="9" t="n">
-        <v>881.018429738117</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
+      <c r="B53" s="7" t="n">
+        <v>43.6836914285063</v>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>908.033121803022</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="8" t="n">
-        <v>43.6836914285063</v>
-      </c>
-      <c r="C54" s="9" t="n">
-        <v>908.033121803022</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
+      <c r="B54" s="7" t="n">
+        <v>45.6469578204157</v>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>943.543747671065</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="8" t="n">
-        <v>45.6469578204157</v>
-      </c>
-      <c r="C55" s="9" t="n">
-        <v>943.543747671065</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
+      <c r="B55" s="7" t="n">
+        <v>45.2928829960189</v>
+      </c>
+      <c r="C55" s="8" t="n">
+        <v>920.547761244122</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="8" t="n">
-        <v>45.2928829960189</v>
-      </c>
-      <c r="C56" s="9" t="n">
-        <v>920.547761244122</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
+      <c r="B56" s="7" t="n">
+        <v>46.7256745487326</v>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v>904.942485856051</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="8" t="n">
-        <v>46.7256745487326</v>
-      </c>
-      <c r="C57" s="9" t="n">
-        <v>904.942485856051</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
+      <c r="B57" s="7" t="n">
+        <v>48.5170264027786</v>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1047.4202087118</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="8" t="n">
-        <v>48.5170264027786</v>
-      </c>
-      <c r="C58" s="9" t="n">
-        <v>1047.4202087118</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
+      <c r="B58" s="7" t="n">
+        <v>53.2818509160218</v>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1037.19447311771</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="8" t="n">
-        <v>53.2818509160218</v>
-      </c>
-      <c r="C59" s="9" t="n">
-        <v>1037.19447311771</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
+      <c r="B59" s="7" t="n">
+        <v>45.6832151130389</v>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>918.014402566304</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="8" t="n">
-        <v>45.6832151130389</v>
-      </c>
-      <c r="C60" s="9" t="n">
-        <v>918.014402566304</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
+      <c r="B60" s="7" t="n">
+        <v>41.5053429376047</v>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>940.818032921034</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="8" t="n">
-        <v>41.5053429376047</v>
-      </c>
-      <c r="C61" s="9" t="n">
-        <v>940.818032921034</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
+      <c r="B61" s="7" t="n">
+        <v>37.898413894502</v>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>835.422025311637</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="8" t="n">
-        <v>37.898413894502</v>
-      </c>
-      <c r="C62" s="9" t="n">
-        <v>835.422025311637</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
+      <c r="B62" s="7" t="n">
+        <v>42.2796203959034</v>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>925.030838025146</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="8" t="n">
-        <v>42.2796203959034</v>
-      </c>
-      <c r="C63" s="9" t="n">
-        <v>925.030838025146</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
+      <c r="B63" s="7" t="n">
+        <v>29.7456456740621</v>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>667.6365153375</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="8" t="n">
-        <v>29.7456456740621</v>
-      </c>
-      <c r="C64" s="9" t="n">
-        <v>667.6365153375</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="9"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="9"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="9"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="9"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="7"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="7"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="7"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="7"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="7"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="7"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="7"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="7"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="9"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="7"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="7"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="9"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="9"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="9"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="7"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="9"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="7"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="9"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="7"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="9"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="7"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="7"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="9"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="7"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="7"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="9"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="7"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="9"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="9"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="7"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="9"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="7"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="9"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="7"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="7"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="9"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="7"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="7"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="9"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="7"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="9"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="7"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="9"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="7"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="9"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="7"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="9"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="7"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="9"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="7"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="9"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="7"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="9"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="7"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="9"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="7"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="9"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="7"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="9"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="7"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="9"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="7"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="9"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="7"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="9"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="7"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="9"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="7"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="9"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="7"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="9"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="7"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="9"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="7"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="9"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="7"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="9"/>
-    </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="7"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="9"/>
-    </row>
+      <c r="E145" s="6"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3185,2765 +3204,2765 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="11" t="n">
+      <c r="A3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>48.3633501367137</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="10" t="n">
         <v>896.655593616098</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="11" t="n">
+      <c r="A4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>46.0797990301096</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="10" t="n">
         <v>905.337376025869</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="11" t="n">
+      <c r="A5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="10" t="n">
         <v>48.6113140617835</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="10" t="n">
         <v>916.096846600677</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="11" t="n">
+      <c r="A6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>47.7599485599718</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>917.089556805778</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="11" t="n">
+        <v>146</v>
+      </c>
+      <c r="B7" s="10" t="n">
         <v>49.841685685935</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="10" t="n">
         <v>924.865755595975</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="11" t="n">
+      <c r="A8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="10" t="n">
         <v>46.1135160599493</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="10" t="n">
         <v>928.599846687878</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="11" t="n">
+      <c r="A9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>46.7156741745159</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="10" t="n">
         <v>929.055385876518</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="11" t="n">
+        <v>149</v>
+      </c>
+      <c r="B10" s="10" t="n">
         <v>45.4748502332077</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <v>931.865644326033</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="B11" s="10" t="n">
         <v>47.4773216134271</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="10" t="n">
         <v>948.898326322163</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>46.3133165974345</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="10" t="n">
         <v>949.23451286344</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="11" t="n">
+      <c r="A13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="10" t="n">
         <v>49.444767692191</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="10" t="n">
         <v>949.986266009801</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="11" t="n">
+        <v>153</v>
+      </c>
+      <c r="B14" s="10" t="n">
         <v>47.5211309871566</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="10" t="n">
         <v>950.084104101272</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="11" t="n">
+      <c r="A15" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="10" t="n">
         <v>49.4905693363878</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <v>952.609600141867</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="11" t="n">
+        <v>155</v>
+      </c>
+      <c r="B16" s="10" t="n">
         <v>47.662125480846</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="10" t="n">
         <v>952.989121525744</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="11" t="n">
+        <v>156</v>
+      </c>
+      <c r="B17" s="10" t="n">
         <v>50.1076443708097</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <v>954.796691032677</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="11" t="n">
+        <v>157</v>
+      </c>
+      <c r="B18" s="10" t="n">
         <v>48.5104704908667</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>957.38992867081</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="11" t="n">
+      <c r="A19" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="10" t="n">
         <v>48.7484591105297</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <v>958.073864671853</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="11" t="n">
+        <v>159</v>
+      </c>
+      <c r="B20" s="10" t="n">
         <v>48.8769159248567</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="10" t="n">
         <v>962.429053106378</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="11" t="n">
+      <c r="A21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="10" t="n">
         <v>45.13738116638</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="10" t="n">
         <v>966.428585635397</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="11" t="n">
+      <c r="A22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="10" t="n">
         <v>50.6252837988777</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="10" t="n">
         <v>971.010504406513</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="11" t="n">
+      <c r="A23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="10" t="n">
         <v>53.1669259922939</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="10" t="n">
         <v>971.314351732757</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="11" t="n">
+      <c r="A24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="10" t="n">
         <v>54.1740450178463</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="10" t="n">
         <v>974.858353043113</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="11" t="n">
+      <c r="A25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="10" t="n">
         <v>51.3252535751084</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="10" t="n">
         <v>975.881236583627</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="11" t="n">
+      <c r="A26" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="10" t="n">
         <v>49.698337486351</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="10" t="n">
         <v>978.044342039421</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="11" t="n">
+        <v>166</v>
+      </c>
+      <c r="B27" s="10" t="n">
         <v>49.2164924968541</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="10" t="n">
         <v>979.043412647089</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="11" t="n">
+      <c r="A28" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="10" t="n">
         <v>54.2185267534008</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="10" t="n">
         <v>981.690402395605</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="11" t="n">
+      <c r="A29" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="10" t="n">
         <v>53.1142277605639</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="10" t="n">
         <v>983.664503686421</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="11" t="n">
+        <v>169</v>
+      </c>
+      <c r="B30" s="10" t="n">
         <v>51.6400029509128</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="10" t="n">
         <v>985.074488530665</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="11" t="n">
+      <c r="A31" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="10" t="n">
         <v>52.4687880927209</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="10" t="n">
         <v>988.354494879062</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="11" t="n">
+      <c r="A32" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="10" t="n">
         <v>49.7186694529329</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C32" s="10" t="n">
         <v>989.755066580628</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="11" t="n">
+      <c r="A33" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="10" t="n">
         <v>46.0436588641528</v>
       </c>
-      <c r="C33" s="11" t="n">
+      <c r="C33" s="10" t="n">
         <v>991.536970784534</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="11" t="n">
+      <c r="A34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="10" t="n">
         <v>46.5571048268817</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C34" s="10" t="n">
         <v>993.386406764459</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="11" t="n">
+        <v>174</v>
+      </c>
+      <c r="B35" s="10" t="n">
         <v>47.0658838615544</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C35" s="10" t="n">
         <v>994.937517430887</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="11" t="n">
+      <c r="A36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="10" t="n">
         <v>48.4422347520273</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="10" t="n">
         <v>996.426830248582</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="11" t="n">
+      <c r="A37" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="10" t="n">
         <v>52.3103296672661</v>
       </c>
-      <c r="C37" s="11" t="n">
+      <c r="C37" s="10" t="n">
         <v>1000.68904193552</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="11" t="n">
+      <c r="A38" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="10" t="n">
         <v>49.1730254298989</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C38" s="10" t="n">
         <v>1003.14539206081</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="11" t="n">
+      <c r="A39" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="10" t="n">
         <v>50.209315643887</v>
       </c>
-      <c r="C39" s="11" t="n">
+      <c r="C39" s="10" t="n">
         <v>1012.41335457041</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="11" t="n">
+        <v>179</v>
+      </c>
+      <c r="B40" s="10" t="n">
         <v>53.6569220143584</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C40" s="10" t="n">
         <v>1017.50507524004</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="11" t="n">
+        <v>180</v>
+      </c>
+      <c r="B41" s="10" t="n">
         <v>56.02289624027</v>
       </c>
-      <c r="C41" s="11" t="n">
+      <c r="C41" s="10" t="n">
         <v>1020.01168726693</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="11" t="n">
+      <c r="A42" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="10" t="n">
         <v>50.5054861143599</v>
       </c>
-      <c r="C42" s="11" t="n">
+      <c r="C42" s="10" t="n">
         <v>1020.64394960073</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="11" t="n">
+        <v>182</v>
+      </c>
+      <c r="B43" s="10" t="n">
         <v>40.0142728239143</v>
       </c>
-      <c r="C43" s="11" t="n">
+      <c r="C43" s="10" t="n">
         <v>1020.77350479061</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="11" t="n">
+        <v>183</v>
+      </c>
+      <c r="B44" s="10" t="n">
         <v>51.4568115744287</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C44" s="10" t="n">
         <v>1021.02348670889</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="11" t="n">
+      <c r="A45" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="10" t="n">
         <v>50.5318634155588</v>
       </c>
-      <c r="C45" s="11" t="n">
+      <c r="C45" s="10" t="n">
         <v>1024.64956188317</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="11" t="n">
+      <c r="A46" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="10" t="n">
         <v>54.6470928567488</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C46" s="10" t="n">
         <v>1034.19832539236</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47" s="11" t="n">
+        <v>186</v>
+      </c>
+      <c r="B47" s="10" t="n">
         <v>51.6846560750437</v>
       </c>
-      <c r="C47" s="11" t="n">
+      <c r="C47" s="10" t="n">
         <v>1035.17299176344</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="11" t="n">
+      <c r="A48" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="10" t="n">
         <v>57.3758691164778</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C48" s="10" t="n">
         <v>1035.19187857438</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="11" t="n">
+        <v>188</v>
+      </c>
+      <c r="B49" s="10" t="n">
         <v>55.9385462820172</v>
       </c>
-      <c r="C49" s="11" t="n">
+      <c r="C49" s="10" t="n">
         <v>1037.37864073831</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="11" t="n">
+      <c r="A50" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="10" t="n">
         <v>50.1859386875729</v>
       </c>
-      <c r="C50" s="11" t="n">
+      <c r="C50" s="10" t="n">
         <v>1037.64284942469</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" s="11" t="n">
+        <v>190</v>
+      </c>
+      <c r="B51" s="10" t="n">
         <v>51.4060637689811</v>
       </c>
-      <c r="C51" s="11" t="n">
+      <c r="C51" s="10" t="n">
         <v>1038.37252395224</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="11" t="n">
+        <v>191</v>
+      </c>
+      <c r="B52" s="10" t="n">
         <v>56.9713618974918</v>
       </c>
-      <c r="C52" s="11" t="n">
+      <c r="C52" s="10" t="n">
         <v>1038.5796707615</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="11" t="n">
+        <v>192</v>
+      </c>
+      <c r="B53" s="10" t="n">
         <v>53.3158298660854</v>
       </c>
-      <c r="C53" s="11" t="n">
+      <c r="C53" s="10" t="n">
         <v>1040.66733696963</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="11" t="n">
+      <c r="A54" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" s="10" t="n">
         <v>56.0786492702871</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C54" s="10" t="n">
         <v>1044.58848503437</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="11" t="n">
+        <v>194</v>
+      </c>
+      <c r="B55" s="10" t="n">
         <v>54.5396232995244</v>
       </c>
-      <c r="C55" s="11" t="n">
+      <c r="C55" s="10" t="n">
         <v>1044.74608483082</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" s="11" t="n">
+        <v>195</v>
+      </c>
+      <c r="B56" s="10" t="n">
         <v>57.6966701247687</v>
       </c>
-      <c r="C56" s="11" t="n">
+      <c r="C56" s="10" t="n">
         <v>1046.99492559366</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" s="11" t="n">
+      <c r="A57" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="10" t="n">
         <v>53.9936476609709</v>
       </c>
-      <c r="C57" s="11" t="n">
+      <c r="C57" s="10" t="n">
         <v>1049.46505124011</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B58" s="11" t="n">
+      <c r="A58" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="10" t="n">
         <v>53.3516841335243</v>
       </c>
-      <c r="C58" s="11" t="n">
+      <c r="C58" s="10" t="n">
         <v>1051.72344685582</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B59" s="11" t="n">
+      <c r="A59" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="10" t="n">
         <v>55.5751520661003</v>
       </c>
-      <c r="C59" s="11" t="n">
+      <c r="C59" s="10" t="n">
         <v>1052.45326500694</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="11" t="n">
+        <v>199</v>
+      </c>
+      <c r="B60" s="10" t="n">
         <v>51.8959630879369</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="C60" s="10" t="n">
         <v>1054.9917046511</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61" s="11" t="n">
+      <c r="A61" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="10" t="n">
         <v>53.1883790999443</v>
       </c>
-      <c r="C61" s="11" t="n">
+      <c r="C61" s="10" t="n">
         <v>1055.31766640594</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B62" s="11" t="n">
+        <v>201</v>
+      </c>
+      <c r="B62" s="10" t="n">
         <v>50.7680565517202</v>
       </c>
-      <c r="C62" s="11" t="n">
+      <c r="C62" s="10" t="n">
         <v>1055.56272907088</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="B63" s="10" t="n">
         <v>54.2672051424966</v>
       </c>
-      <c r="C63" s="11" t="n">
+      <c r="C63" s="10" t="n">
         <v>1060.1203186548</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B64" s="11" t="n">
+        <v>203</v>
+      </c>
+      <c r="B64" s="10" t="n">
         <v>53.5870277978217</v>
       </c>
-      <c r="C64" s="11" t="n">
+      <c r="C64" s="10" t="n">
         <v>1061.15760860352</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="11" t="n">
+        <v>204</v>
+      </c>
+      <c r="B65" s="10" t="n">
         <v>54.6611902320528</v>
       </c>
-      <c r="C65" s="11" t="n">
+      <c r="C65" s="10" t="n">
         <v>1061.79024727065</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="11" t="n">
+      <c r="A66" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="10" t="n">
         <v>52.3342889184542</v>
       </c>
-      <c r="C66" s="11" t="n">
+      <c r="C66" s="10" t="n">
         <v>1061.95340878198</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="B67" s="11" t="n">
+        <v>206</v>
+      </c>
+      <c r="B67" s="10" t="n">
         <v>53.4341730664719</v>
       </c>
-      <c r="C67" s="11" t="n">
+      <c r="C67" s="10" t="n">
         <v>1062.16877087048</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B68" s="11" t="n">
+      <c r="A68" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="10" t="n">
         <v>54.7928672781547</v>
       </c>
-      <c r="C68" s="11" t="n">
+      <c r="C68" s="10" t="n">
         <v>1063.83182977676</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B69" s="11" t="n">
+        <v>208</v>
+      </c>
+      <c r="B69" s="10" t="n">
         <v>50.5740444885269</v>
       </c>
-      <c r="C69" s="11" t="n">
+      <c r="C69" s="10" t="n">
         <v>1064.13367765257</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B70" s="11" t="n">
+      <c r="A70" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="10" t="n">
         <v>54.9371811896342</v>
       </c>
-      <c r="C70" s="11" t="n">
+      <c r="C70" s="10" t="n">
         <v>1066.37598007385</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="11" t="n">
+      <c r="A71" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="10" t="n">
         <v>55.3712660008503</v>
       </c>
-      <c r="C71" s="11" t="n">
+      <c r="C71" s="10" t="n">
         <v>1069.2203987743</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="11" t="n">
+      <c r="A72" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="10" t="n">
         <v>54.0718536589635</v>
       </c>
-      <c r="C72" s="11" t="n">
+      <c r="C72" s="10" t="n">
         <v>1072.21286176021</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B73" s="14" t="n">
+        <v>212</v>
+      </c>
+      <c r="B73" s="13" t="n">
         <v>58.7292759399835</v>
       </c>
-      <c r="C73" s="14" t="n">
+      <c r="C73" s="13" t="n">
         <v>1090.79019358032</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B74" s="11" t="n">
+      <c r="A74" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="10" t="n">
         <v>55.1726674437898</v>
       </c>
-      <c r="C74" s="11" t="n">
+      <c r="C74" s="10" t="n">
         <v>1092.01029935703</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B75" s="11" t="n">
+      <c r="A75" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="10" t="n">
         <v>51.2160707598061</v>
       </c>
-      <c r="C75" s="11" t="n">
+      <c r="C75" s="10" t="n">
         <v>1092.43267686185</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" s="11" t="n">
+        <v>215</v>
+      </c>
+      <c r="B76" s="10" t="n">
         <v>56.4598637970493</v>
       </c>
-      <c r="C76" s="11" t="n">
+      <c r="C76" s="10" t="n">
         <v>1092.60561588384</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="11" t="n">
+        <v>216</v>
+      </c>
+      <c r="B77" s="10" t="n">
         <v>57.360234773517</v>
       </c>
-      <c r="C77" s="11" t="n">
+      <c r="C77" s="10" t="n">
         <v>1093.06323781806</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B78" s="11" t="n">
+      <c r="A78" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="10" t="n">
         <v>51.5484047078808</v>
       </c>
-      <c r="C78" s="11" t="n">
+      <c r="C78" s="10" t="n">
         <v>1099.258437116</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B79" s="11" t="n">
+      <c r="A79" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="10" t="n">
         <v>60.3193002296925</v>
       </c>
-      <c r="C79" s="11" t="n">
+      <c r="C79" s="10" t="n">
         <v>1107.62352115594</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="11" t="n">
+        <v>219</v>
+      </c>
+      <c r="B80" s="10" t="n">
         <v>56.4367886530694</v>
       </c>
-      <c r="C80" s="11" t="n">
+      <c r="C80" s="10" t="n">
         <v>1109.75357629414</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B81" s="11" t="n">
+      <c r="A81" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="10" t="n">
         <v>58.0066185091992</v>
       </c>
-      <c r="C81" s="11" t="n">
+      <c r="C81" s="10" t="n">
         <v>1111.48693389052</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B82" s="11" t="n">
+        <v>221</v>
+      </c>
+      <c r="B82" s="10" t="n">
         <v>59.380988077312</v>
       </c>
-      <c r="C82" s="11" t="n">
+      <c r="C82" s="10" t="n">
         <v>1118.3039600471</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="11" t="n">
+      <c r="A83" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="10" t="n">
         <v>59.0074311417755</v>
       </c>
-      <c r="C83" s="11" t="n">
+      <c r="C83" s="10" t="n">
         <v>1119.29559473556</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B84" s="11" t="n">
+        <v>223</v>
+      </c>
+      <c r="B84" s="10" t="n">
         <v>59.4722611047188</v>
       </c>
-      <c r="C84" s="11" t="n">
+      <c r="C84" s="10" t="n">
         <v>1122.53291927677</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B85" s="11" t="n">
+        <v>224</v>
+      </c>
+      <c r="B85" s="10" t="n">
         <v>58.630265809329</v>
       </c>
-      <c r="C85" s="11" t="n">
+      <c r="C85" s="10" t="n">
         <v>1127.16707615906</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B86" s="11" t="n">
+      <c r="A86" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" s="10" t="n">
         <v>57.5639449384764</v>
       </c>
-      <c r="C86" s="11" t="n">
+      <c r="C86" s="10" t="n">
         <v>1127.70326072623</v>
       </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B87" s="11" t="n">
+        <v>226</v>
+      </c>
+      <c r="B87" s="10" t="n">
         <v>59.5588633061034</v>
       </c>
-      <c r="C87" s="11" t="n">
+      <c r="C87" s="10" t="n">
         <v>1127.98035903319</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="11" t="n">
+      <c r="A88" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" s="10" t="n">
         <v>59.9321434430284</v>
       </c>
-      <c r="C88" s="11" t="n">
+      <c r="C88" s="10" t="n">
         <v>1128.59174570356</v>
       </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B89" s="11" t="n">
+        <v>228</v>
+      </c>
+      <c r="B89" s="10" t="n">
         <v>60.2043096044284</v>
       </c>
-      <c r="C89" s="11" t="n">
+      <c r="C89" s="10" t="n">
         <v>1130.26040847884</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B90" s="11" t="n">
+        <v>229</v>
+      </c>
+      <c r="B90" s="10" t="n">
         <v>56.5984760519268</v>
       </c>
-      <c r="C90" s="11" t="n">
+      <c r="C90" s="10" t="n">
         <v>1135.77126288378</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B91" s="11" t="n">
+      <c r="A91" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="10" t="n">
         <v>57.6810317478899</v>
       </c>
-      <c r="C91" s="11" t="n">
+      <c r="C91" s="10" t="n">
         <v>1139.41471936487</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B92" s="11" t="n">
+      <c r="A92" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="10" t="n">
         <v>60.7877794875554</v>
       </c>
-      <c r="C92" s="11" t="n">
+      <c r="C92" s="10" t="n">
         <v>1140.83437688693</v>
       </c>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B93" s="11" t="n">
+        <v>232</v>
+      </c>
+      <c r="B93" s="10" t="n">
         <v>59.7274892374763</v>
       </c>
-      <c r="C93" s="11" t="n">
+      <c r="C93" s="10" t="n">
         <v>1141.84838280219</v>
       </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="11" t="n">
+      <c r="A94" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" s="10" t="n">
         <v>57.0571244503503</v>
       </c>
-      <c r="C94" s="11" t="n">
+      <c r="C94" s="10" t="n">
         <v>1143.29350531678</v>
       </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B95" s="11" t="n">
+      <c r="A95" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="10" t="n">
         <v>55.6766475222545</v>
       </c>
-      <c r="C95" s="11" t="n">
+      <c r="C95" s="10" t="n">
         <v>1144.65476563649</v>
       </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B96" s="14" t="n">
+        <v>235</v>
+      </c>
+      <c r="B96" s="13" t="n">
         <v>60.7494238801716</v>
       </c>
-      <c r="C96" s="14" t="n">
+      <c r="C96" s="13" t="n">
         <v>1148.3689902038</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B97" s="11" t="n">
+      <c r="A97" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B97" s="10" t="n">
         <v>58.5406784258358</v>
       </c>
-      <c r="C97" s="11" t="n">
+      <c r="C97" s="10" t="n">
         <v>1149.01341567422</v>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B98" s="11" t="n">
+      <c r="A98" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B98" s="10" t="n">
         <v>59.23386200652</v>
       </c>
-      <c r="C98" s="11" t="n">
+      <c r="C98" s="10" t="n">
         <v>1152.86662161531</v>
       </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B99" s="11" t="n">
+      <c r="A99" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" s="10" t="n">
         <v>57.5474409431257</v>
       </c>
-      <c r="C99" s="11" t="n">
+      <c r="C99" s="10" t="n">
         <v>1154.00085112624</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B100" s="11" t="n">
+      <c r="A100" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" s="10" t="n">
         <v>58.9643964708311</v>
       </c>
-      <c r="C100" s="11" t="n">
+      <c r="C100" s="10" t="n">
         <v>1154.57481941962</v>
       </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B101" s="11" t="n">
+        <v>240</v>
+      </c>
+      <c r="B101" s="10" t="n">
         <v>57.6622245594896</v>
       </c>
-      <c r="C101" s="11" t="n">
+      <c r="C101" s="10" t="n">
         <v>1156.69664753157</v>
       </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B102" s="11" t="n">
+      <c r="A102" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" s="10" t="n">
         <v>61.7218562693483</v>
       </c>
-      <c r="C102" s="11" t="n">
+      <c r="C102" s="10" t="n">
         <v>1157.61153823643</v>
       </c>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B103" s="11" t="n">
+        <v>242</v>
+      </c>
+      <c r="B103" s="10" t="n">
         <v>56.6990605687811</v>
       </c>
-      <c r="C103" s="11" t="n">
+      <c r="C103" s="10" t="n">
         <v>1158.3656100871</v>
       </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B104" s="11" t="n">
+      <c r="A104" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="10" t="n">
         <v>59.2284473258117</v>
       </c>
-      <c r="C104" s="11" t="n">
+      <c r="C104" s="10" t="n">
         <v>1159.18483278481</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B105" s="11" t="n">
+        <v>244</v>
+      </c>
+      <c r="B105" s="10" t="n">
         <v>57.9449791290017</v>
       </c>
-      <c r="C105" s="11" t="n">
+      <c r="C105" s="10" t="n">
         <v>1250.05216249356</v>
       </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F214" s="11"/>
-      <c r="G214" s="11"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F216" s="11"/>
-      <c r="G216" s="11"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F218" s="11"/>
-      <c r="G218" s="11"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F222" s="11"/>
-      <c r="G222" s="11"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F223" s="11"/>
-      <c r="G223" s="11"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F227" s="11"/>
-      <c r="G227" s="11"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F230" s="11"/>
-      <c r="G230" s="11"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F234" s="11"/>
-      <c r="G234" s="11"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F235" s="11"/>
-      <c r="G235" s="11"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F236" s="11"/>
-      <c r="G236" s="11"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F238" s="11"/>
-      <c r="G238" s="11"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F239" s="11"/>
-      <c r="G239" s="11"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F240" s="14"/>
-      <c r="G240" s="14"/>
+      <c r="F240" s="13"/>
+      <c r="G240" s="13"/>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F241" s="14"/>
-      <c r="G241" s="14"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="13"/>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F242" s="14"/>
-      <c r="G242" s="14"/>
+      <c r="F242" s="13"/>
+      <c r="G242" s="13"/>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F243" s="14"/>
-      <c r="G243" s="14"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="13"/>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F244" s="14"/>
-      <c r="G244" s="14"/>
+      <c r="F244" s="13"/>
+      <c r="G244" s="13"/>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F245" s="14"/>
-      <c r="G245" s="14"/>
+      <c r="F245" s="13"/>
+      <c r="G245" s="13"/>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F246" s="14"/>
-      <c r="G246" s="14"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="13"/>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F247" s="14"/>
-      <c r="G247" s="14"/>
+      <c r="F247" s="13"/>
+      <c r="G247" s="13"/>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F248" s="14"/>
-      <c r="G248" s="14"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="13"/>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F249" s="14"/>
-      <c r="G249" s="14"/>
+      <c r="F249" s="13"/>
+      <c r="G249" s="13"/>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F250" s="14"/>
-      <c r="G250" s="14"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="13"/>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F251" s="14"/>
-      <c r="G251" s="14"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="13"/>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F252" s="14"/>
-      <c r="G252" s="14"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="13"/>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F253" s="14"/>
-      <c r="G253" s="14"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="13"/>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F254" s="14"/>
-      <c r="G254" s="14"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13"/>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F255" s="14"/>
-      <c r="G255" s="14"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F256" s="14"/>
-      <c r="G256" s="14"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="13"/>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F257" s="14"/>
-      <c r="G257" s="14"/>
+      <c r="F257" s="13"/>
+      <c r="G257" s="13"/>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F258" s="14"/>
-      <c r="G258" s="14"/>
+      <c r="F258" s="13"/>
+      <c r="G258" s="13"/>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F259" s="14"/>
-      <c r="G259" s="14"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="13"/>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F260" s="14"/>
-      <c r="G260" s="14"/>
+      <c r="F260" s="13"/>
+      <c r="G260" s="13"/>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F261" s="14"/>
-      <c r="G261" s="14"/>
+      <c r="F261" s="13"/>
+      <c r="G261" s="13"/>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F262" s="14"/>
-      <c r="G262" s="14"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="13"/>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F263" s="14"/>
-      <c r="G263" s="14"/>
+      <c r="F263" s="13"/>
+      <c r="G263" s="13"/>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F264" s="14"/>
-      <c r="G264" s="14"/>
+      <c r="F264" s="13"/>
+      <c r="G264" s="13"/>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="10"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E266" s="10"/>
-      <c r="F266" s="11"/>
-      <c r="G266" s="11"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E267" s="10"/>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E268" s="10"/>
-      <c r="F268" s="11"/>
-      <c r="G268" s="11"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="10"/>
+      <c r="G268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E269" s="10"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E270" s="10"/>
-      <c r="F270" s="11"/>
-      <c r="G270" s="11"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="10"/>
+      <c r="G270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E271" s="10"/>
-      <c r="F271" s="11"/>
-      <c r="G271" s="11"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E272" s="10"/>
-      <c r="F272" s="11"/>
-      <c r="G272" s="11"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E273" s="10"/>
-      <c r="F273" s="11"/>
-      <c r="G273" s="11"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E274" s="10"/>
-      <c r="F274" s="11"/>
-      <c r="G274" s="11"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E275" s="10"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E276" s="10"/>
-      <c r="F276" s="11"/>
-      <c r="G276" s="11"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="10"/>
+      <c r="G276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E277" s="10"/>
-      <c r="F277" s="11"/>
-      <c r="G277" s="11"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="10"/>
+      <c r="G277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E278" s="10"/>
-      <c r="F278" s="11"/>
-      <c r="G278" s="11"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="10"/>
+      <c r="G278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E279" s="10"/>
-      <c r="F279" s="11"/>
-      <c r="G279" s="11"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="10"/>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E280" s="10"/>
-      <c r="F280" s="11"/>
-      <c r="G280" s="11"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="10"/>
+      <c r="G280" s="10"/>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E281" s="10"/>
-      <c r="F281" s="11"/>
-      <c r="G281" s="11"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="10"/>
+      <c r="G281" s="10"/>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E282" s="10"/>
-      <c r="F282" s="11"/>
-      <c r="G282" s="11"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="10"/>
+      <c r="G282" s="10"/>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E283" s="10"/>
-      <c r="F283" s="11"/>
-      <c r="G283" s="11"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="10"/>
+      <c r="G283" s="10"/>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E284" s="10"/>
-      <c r="F284" s="11"/>
-      <c r="G284" s="11"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="10"/>
+      <c r="G284" s="10"/>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E285" s="10"/>
-      <c r="F285" s="11"/>
-      <c r="G285" s="11"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="10"/>
+      <c r="G285" s="10"/>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E286" s="10"/>
-      <c r="F286" s="11"/>
-      <c r="G286" s="11"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="10"/>
+      <c r="G286" s="10"/>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E287" s="10"/>
-      <c r="F287" s="11"/>
-      <c r="G287" s="11"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="10"/>
+      <c r="G287" s="10"/>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E288" s="10"/>
-      <c r="F288" s="11"/>
-      <c r="G288" s="11"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="10"/>
+      <c r="G288" s="10"/>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E289" s="10"/>
-      <c r="F289" s="11"/>
-      <c r="G289" s="11"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="10"/>
+      <c r="G289" s="10"/>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E290" s="10"/>
-      <c r="F290" s="11"/>
-      <c r="G290" s="11"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="10"/>
+      <c r="G290" s="10"/>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E291" s="10"/>
-      <c r="F291" s="11"/>
-      <c r="G291" s="11"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="10"/>
+      <c r="G291" s="10"/>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E292" s="10"/>
-      <c r="F292" s="11"/>
-      <c r="G292" s="11"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="10"/>
+      <c r="G292" s="10"/>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E293" s="10"/>
-      <c r="F293" s="11"/>
-      <c r="G293" s="11"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="10"/>
+      <c r="G293" s="10"/>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E294" s="10"/>
-      <c r="F294" s="11"/>
-      <c r="G294" s="11"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10"/>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E295" s="10"/>
-      <c r="F295" s="11"/>
-      <c r="G295" s="11"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="10"/>
+      <c r="G295" s="10"/>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E296" s="10"/>
-      <c r="F296" s="11"/>
-      <c r="G296" s="11"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="10"/>
+      <c r="G296" s="10"/>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E297" s="10"/>
-      <c r="F297" s="11"/>
-      <c r="G297" s="11"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="10"/>
+      <c r="G297" s="10"/>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E298" s="10"/>
-      <c r="F298" s="11"/>
-      <c r="G298" s="11"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="10"/>
+      <c r="G298" s="10"/>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E299" s="10"/>
-      <c r="F299" s="11"/>
-      <c r="G299" s="11"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="10"/>
+      <c r="G299" s="10"/>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E300" s="10"/>
-      <c r="F300" s="11"/>
-      <c r="G300" s="11"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="10"/>
+      <c r="G300" s="10"/>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E301" s="10"/>
-      <c r="F301" s="11"/>
-      <c r="G301" s="11"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="10"/>
+      <c r="G301" s="10"/>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E302" s="10"/>
-      <c r="F302" s="11"/>
-      <c r="G302" s="11"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="10"/>
+      <c r="G302" s="10"/>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E303" s="10"/>
-      <c r="F303" s="11"/>
-      <c r="G303" s="11"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="10"/>
+      <c r="G303" s="10"/>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E304" s="10"/>
-      <c r="F304" s="11"/>
-      <c r="G304" s="11"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="10"/>
+      <c r="G304" s="10"/>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E305" s="10"/>
-      <c r="F305" s="11"/>
-      <c r="G305" s="11"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="10"/>
+      <c r="G305" s="10"/>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E306" s="10"/>
-      <c r="F306" s="11"/>
-      <c r="G306" s="11"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="10"/>
+      <c r="G306" s="10"/>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E307" s="10"/>
-      <c r="F307" s="11"/>
-      <c r="G307" s="11"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="10"/>
+      <c r="G307" s="10"/>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E308" s="10"/>
-      <c r="F308" s="11"/>
-      <c r="G308" s="11"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="10"/>
+      <c r="G308" s="10"/>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E309" s="10"/>
-      <c r="F309" s="11"/>
-      <c r="G309" s="11"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="10"/>
+      <c r="G309" s="10"/>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E310" s="10"/>
-      <c r="F310" s="11"/>
-      <c r="G310" s="11"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="10"/>
+      <c r="G310" s="10"/>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E311" s="10"/>
-      <c r="F311" s="11"/>
-      <c r="G311" s="11"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="10"/>
+      <c r="G311" s="10"/>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E312" s="10"/>
-      <c r="F312" s="11"/>
-      <c r="G312" s="11"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="10"/>
+      <c r="G312" s="10"/>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E313" s="10"/>
-      <c r="F313" s="11"/>
-      <c r="G313" s="11"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="10"/>
+      <c r="G313" s="10"/>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E314" s="10"/>
-      <c r="F314" s="11"/>
-      <c r="G314" s="11"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="10"/>
+      <c r="G314" s="10"/>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E315" s="10"/>
-      <c r="F315" s="11"/>
-      <c r="G315" s="11"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="10"/>
+      <c r="G315" s="10"/>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E316" s="10"/>
-      <c r="F316" s="11"/>
-      <c r="G316" s="11"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="10"/>
+      <c r="G316" s="10"/>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E317" s="10"/>
-      <c r="F317" s="11"/>
-      <c r="G317" s="11"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="10"/>
+      <c r="G317" s="10"/>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E318" s="10"/>
-      <c r="F318" s="11"/>
-      <c r="G318" s="11"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="10"/>
+      <c r="G318" s="10"/>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E319" s="10"/>
-      <c r="F319" s="11"/>
-      <c r="G319" s="11"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="10"/>
+      <c r="G319" s="10"/>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E320" s="10"/>
-      <c r="F320" s="11"/>
-      <c r="G320" s="11"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="10"/>
+      <c r="G320" s="10"/>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E321" s="10"/>
-      <c r="F321" s="11"/>
-      <c r="G321" s="11"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="10"/>
+      <c r="G321" s="10"/>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E322" s="10"/>
-      <c r="F322" s="11"/>
-      <c r="G322" s="11"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="10"/>
+      <c r="G322" s="10"/>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E323" s="10"/>
-      <c r="F323" s="11"/>
-      <c r="G323" s="11"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="10"/>
+      <c r="G323" s="10"/>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E324" s="10"/>
-      <c r="F324" s="11"/>
-      <c r="G324" s="11"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="10"/>
+      <c r="G324" s="10"/>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E325" s="10"/>
-      <c r="F325" s="11"/>
-      <c r="G325" s="11"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="10"/>
+      <c r="G325" s="10"/>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E326" s="10"/>
-      <c r="F326" s="11"/>
-      <c r="G326" s="11"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="10"/>
+      <c r="G326" s="10"/>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E327" s="10"/>
-      <c r="F327" s="11"/>
-      <c r="G327" s="11"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="10"/>
+      <c r="G327" s="10"/>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E328" s="10"/>
-      <c r="F328" s="11"/>
-      <c r="G328" s="11"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="10"/>
+      <c r="G328" s="10"/>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E329" s="10"/>
-      <c r="F329" s="11"/>
-      <c r="G329" s="11"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="10"/>
+      <c r="G329" s="10"/>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E330" s="10"/>
-      <c r="F330" s="11"/>
-      <c r="G330" s="11"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="10"/>
+      <c r="G330" s="10"/>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E331" s="10"/>
-      <c r="F331" s="11"/>
-      <c r="G331" s="11"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="10"/>
+      <c r="G331" s="10"/>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E332" s="10"/>
-      <c r="F332" s="11"/>
-      <c r="G332" s="11"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="10"/>
+      <c r="G332" s="10"/>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E333" s="10"/>
-      <c r="F333" s="11"/>
-      <c r="G333" s="11"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="10"/>
+      <c r="G333" s="10"/>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E334" s="10"/>
-      <c r="F334" s="11"/>
-      <c r="G334" s="11"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="10"/>
+      <c r="G334" s="10"/>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E335" s="10"/>
-      <c r="F335" s="11"/>
-      <c r="G335" s="11"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="10"/>
+      <c r="G335" s="10"/>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E336" s="10"/>
-      <c r="F336" s="11"/>
-      <c r="G336" s="11"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="10"/>
+      <c r="G336" s="10"/>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E337" s="10"/>
-      <c r="F337" s="11"/>
-      <c r="G337" s="11"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="10"/>
+      <c r="G337" s="10"/>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E338" s="10"/>
-      <c r="F338" s="11"/>
-      <c r="G338" s="11"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="10"/>
+      <c r="G338" s="10"/>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E339" s="10"/>
-      <c r="F339" s="11"/>
-      <c r="G339" s="11"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="10"/>
+      <c r="G339" s="10"/>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E340" s="10"/>
-      <c r="F340" s="11"/>
-      <c r="G340" s="11"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="10"/>
+      <c r="G340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E341" s="10"/>
-      <c r="F341" s="11"/>
-      <c r="G341" s="11"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="10"/>
+      <c r="G341" s="10"/>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E342" s="10"/>
-      <c r="F342" s="11"/>
-      <c r="G342" s="11"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="10"/>
+      <c r="G342" s="10"/>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E343" s="10"/>
-      <c r="F343" s="11"/>
-      <c r="G343" s="11"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="10"/>
+      <c r="G343" s="10"/>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E344" s="10"/>
-      <c r="F344" s="11"/>
-      <c r="G344" s="11"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="10"/>
+      <c r="G344" s="10"/>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E345" s="10"/>
-      <c r="F345" s="11"/>
-      <c r="G345" s="11"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="10"/>
+      <c r="G345" s="10"/>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E346" s="10"/>
-      <c r="F346" s="11"/>
-      <c r="G346" s="11"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="10"/>
+      <c r="G346" s="10"/>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E347" s="10"/>
-      <c r="F347" s="11"/>
-      <c r="G347" s="11"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="10"/>
+      <c r="G347" s="10"/>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E348" s="10"/>
-      <c r="F348" s="11"/>
-      <c r="G348" s="11"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="10"/>
+      <c r="G348" s="10"/>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E349" s="10"/>
-      <c r="F349" s="11"/>
-      <c r="G349" s="11"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="10"/>
+      <c r="G349" s="10"/>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E350" s="10"/>
-      <c r="F350" s="11"/>
-      <c r="G350" s="11"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="10"/>
+      <c r="G350" s="10"/>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E351" s="10"/>
-      <c r="F351" s="11"/>
-      <c r="G351" s="11"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="10"/>
+      <c r="G351" s="10"/>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E352" s="10"/>
-      <c r="F352" s="11"/>
-      <c r="G352" s="11"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="10"/>
+      <c r="G352" s="10"/>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E353" s="10"/>
-      <c r="F353" s="11"/>
-      <c r="G353" s="11"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="10"/>
+      <c r="G353" s="10"/>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E354" s="10"/>
-      <c r="F354" s="11"/>
-      <c r="G354" s="11"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="10"/>
+      <c r="G354" s="10"/>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E355" s="10"/>
-      <c r="F355" s="11"/>
-      <c r="G355" s="11"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="10"/>
+      <c r="G355" s="10"/>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E356" s="10"/>
-      <c r="F356" s="11"/>
-      <c r="G356" s="11"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="10"/>
+      <c r="G356" s="10"/>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E357" s="10"/>
-      <c r="F357" s="11"/>
-      <c r="G357" s="11"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="10"/>
+      <c r="G357" s="10"/>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E358" s="10"/>
-      <c r="F358" s="11"/>
-      <c r="G358" s="11"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="10"/>
+      <c r="G358" s="10"/>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E359" s="10"/>
-      <c r="F359" s="11"/>
-      <c r="G359" s="11"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="10"/>
+      <c r="G359" s="10"/>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E360" s="10"/>
-      <c r="F360" s="11"/>
-      <c r="G360" s="11"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="10"/>
+      <c r="G360" s="10"/>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E361" s="10"/>
-      <c r="F361" s="11"/>
-      <c r="G361" s="11"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="10"/>
+      <c r="G361" s="10"/>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E362" s="10"/>
-      <c r="F362" s="11"/>
-      <c r="G362" s="11"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="10"/>
+      <c r="G362" s="10"/>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E363" s="10"/>
-      <c r="F363" s="11"/>
-      <c r="G363" s="11"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="10"/>
+      <c r="G363" s="10"/>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E364" s="10"/>
-      <c r="F364" s="11"/>
-      <c r="G364" s="11"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="10"/>
+      <c r="G364" s="10"/>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E365" s="10"/>
-      <c r="F365" s="11"/>
-      <c r="G365" s="11"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="10"/>
+      <c r="G365" s="10"/>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E366" s="10"/>
-      <c r="F366" s="11"/>
-      <c r="G366" s="11"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="10"/>
+      <c r="G366" s="10"/>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E367" s="10"/>
-      <c r="F367" s="11"/>
-      <c r="G367" s="11"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="10"/>
+      <c r="G367" s="10"/>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E368" s="10"/>
-      <c r="F368" s="11"/>
-      <c r="G368" s="11"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="10"/>
+      <c r="G368" s="10"/>
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E369" s="10"/>
-      <c r="F369" s="11"/>
-      <c r="G369" s="11"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="10"/>
+      <c r="G369" s="10"/>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E370" s="10"/>
-      <c r="F370" s="11"/>
-      <c r="G370" s="11"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="10"/>
+      <c r="G370" s="10"/>
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E371" s="10"/>
-      <c r="F371" s="11"/>
-      <c r="G371" s="11"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="10"/>
+      <c r="G371" s="10"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E372" s="10"/>
-      <c r="F372" s="11"/>
-      <c r="G372" s="11"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="10"/>
+      <c r="G372" s="10"/>
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E373" s="10"/>
-      <c r="F373" s="11"/>
-      <c r="G373" s="11"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="10"/>
+      <c r="G373" s="10"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E374" s="10"/>
-      <c r="F374" s="11"/>
-      <c r="G374" s="11"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="10"/>
+      <c r="G374" s="10"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E375" s="10"/>
-      <c r="F375" s="11"/>
-      <c r="G375" s="11"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="10"/>
+      <c r="G375" s="10"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E376" s="10"/>
-      <c r="F376" s="11"/>
-      <c r="G376" s="11"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="10"/>
+      <c r="G376" s="10"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E377" s="10"/>
-      <c r="F377" s="11"/>
-      <c r="G377" s="11"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="10"/>
+      <c r="G377" s="10"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E378" s="10"/>
-      <c r="F378" s="11"/>
-      <c r="G378" s="11"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="10"/>
+      <c r="G378" s="10"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E379" s="10"/>
-      <c r="F379" s="11"/>
-      <c r="G379" s="11"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="10"/>
+      <c r="G379" s="10"/>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E380" s="10"/>
-      <c r="F380" s="11"/>
-      <c r="G380" s="11"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="10"/>
+      <c r="G380" s="10"/>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E381" s="10"/>
-      <c r="F381" s="11"/>
-      <c r="G381" s="11"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="10"/>
+      <c r="G381" s="10"/>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E382" s="10"/>
-      <c r="F382" s="11"/>
-      <c r="G382" s="11"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="10"/>
+      <c r="G382" s="10"/>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E383" s="10"/>
-      <c r="F383" s="11"/>
-      <c r="G383" s="11"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="10"/>
+      <c r="G383" s="10"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E384" s="10"/>
-      <c r="F384" s="11"/>
-      <c r="G384" s="11"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="10"/>
+      <c r="G384" s="10"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E385" s="10"/>
-      <c r="F385" s="11"/>
-      <c r="G385" s="11"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="10"/>
+      <c r="G385" s="10"/>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E386" s="10"/>
-      <c r="F386" s="11"/>
-      <c r="G386" s="11"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="10"/>
+      <c r="G386" s="10"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E387" s="10"/>
-      <c r="F387" s="11"/>
-      <c r="G387" s="11"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="10"/>
+      <c r="G387" s="10"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E388" s="10"/>
-      <c r="F388" s="11"/>
-      <c r="G388" s="11"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="10"/>
+      <c r="G388" s="10"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E389" s="10"/>
-      <c r="F389" s="11"/>
-      <c r="G389" s="11"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="10"/>
+      <c r="G389" s="10"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E390" s="10"/>
-      <c r="F390" s="11"/>
-      <c r="G390" s="11"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="10"/>
+      <c r="G390" s="10"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E391" s="10"/>
-      <c r="F391" s="11"/>
-      <c r="G391" s="11"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="10"/>
+      <c r="G391" s="10"/>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E392" s="10"/>
-      <c r="F392" s="11"/>
-      <c r="G392" s="11"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="10"/>
+      <c r="G392" s="10"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E393" s="10"/>
-      <c r="F393" s="11"/>
-      <c r="G393" s="11"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="10"/>
+      <c r="G393" s="10"/>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E394" s="10"/>
-      <c r="F394" s="11"/>
-      <c r="G394" s="11"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="10"/>
+      <c r="G394" s="10"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E395" s="10"/>
-      <c r="F395" s="11"/>
-      <c r="G395" s="11"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="10"/>
+      <c r="G395" s="10"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E396" s="10"/>
-      <c r="F396" s="11"/>
-      <c r="G396" s="11"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="10"/>
+      <c r="G396" s="10"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E397" s="10"/>
-      <c r="F397" s="11"/>
-      <c r="G397" s="11"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="10"/>
+      <c r="G397" s="10"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E398" s="10"/>
-      <c r="F398" s="11"/>
-      <c r="G398" s="11"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="10"/>
+      <c r="G398" s="10"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E399" s="10"/>
-      <c r="F399" s="11"/>
-      <c r="G399" s="11"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="10"/>
+      <c r="G399" s="10"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E400" s="10"/>
-      <c r="F400" s="11"/>
-      <c r="G400" s="11"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="10"/>
+      <c r="G400" s="10"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E401" s="10"/>
-      <c r="F401" s="11"/>
-      <c r="G401" s="11"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="10"/>
+      <c r="G401" s="10"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E402" s="10"/>
-      <c r="F402" s="11"/>
-      <c r="G402" s="11"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="10"/>
+      <c r="G402" s="10"/>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E403" s="10"/>
-      <c r="F403" s="11"/>
-      <c r="G403" s="11"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="10"/>
+      <c r="G403" s="10"/>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E404" s="10"/>
-      <c r="F404" s="11"/>
-      <c r="G404" s="11"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="10"/>
+      <c r="G404" s="10"/>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E405" s="10"/>
-      <c r="F405" s="11"/>
-      <c r="G405" s="11"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="10"/>
+      <c r="G405" s="10"/>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E406" s="10"/>
-      <c r="F406" s="11"/>
-      <c r="G406" s="11"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="10"/>
+      <c r="G406" s="10"/>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E407" s="10"/>
-      <c r="F407" s="11"/>
-      <c r="G407" s="11"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="10"/>
+      <c r="G407" s="10"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E408" s="10"/>
-      <c r="F408" s="11"/>
-      <c r="G408" s="11"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="10"/>
+      <c r="G408" s="10"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E409" s="10"/>
-      <c r="F409" s="11"/>
-      <c r="G409" s="11"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="10"/>
+      <c r="G409" s="10"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E410" s="10"/>
-      <c r="F410" s="11"/>
-      <c r="G410" s="11"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="10"/>
+      <c r="G410" s="10"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E411" s="10"/>
-      <c r="F411" s="11"/>
-      <c r="G411" s="11"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="10"/>
+      <c r="G411" s="10"/>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E412" s="10"/>
-      <c r="F412" s="11"/>
-      <c r="G412" s="11"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E413" s="10"/>
-      <c r="F413" s="11"/>
-      <c r="G413" s="11"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="10"/>
+      <c r="G413" s="10"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E414" s="10"/>
-      <c r="F414" s="11"/>
-      <c r="G414" s="11"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="10"/>
+      <c r="G414" s="10"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E415" s="10"/>
-      <c r="F415" s="11"/>
-      <c r="G415" s="11"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="10"/>
+      <c r="G415" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5974,97 +5993,97 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="15" t="n">
+        <v>245</v>
+      </c>
+      <c r="B3" s="14" t="n">
         <v>52.7837192480038</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="15" t="n">
         <v>1176.51250113905</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="15" t="n">
+        <v>246</v>
+      </c>
+      <c r="B4" s="14" t="n">
         <v>49.7230186018428</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="15" t="n">
         <v>1143.36222558659</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="15" t="n">
+        <v>247</v>
+      </c>
+      <c r="B5" s="14" t="n">
         <v>57.5366302925813</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="15" t="n">
         <v>1256.86551548862</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="15" t="n">
+        <v>248</v>
+      </c>
+      <c r="B6" s="14" t="n">
         <v>27.9590463378164</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="15" t="n">
         <v>1088.51103403209</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="15" t="n">
+        <v>249</v>
+      </c>
+      <c r="B7" s="14" t="n">
         <v>59.7313666252163</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="15" t="n">
         <v>1172.70285202411</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="15" t="n">
+        <v>250</v>
+      </c>
+      <c r="B8" s="14" t="n">
         <v>57.7055126813041</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="15" t="n">
         <v>1159.56462426365</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="15" t="n">
+        <v>251</v>
+      </c>
+      <c r="B9" s="14" t="n">
         <v>55.2444737929808</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="15" t="n">
         <v>1169.71486330775</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="15" t="n">
+        <v>252</v>
+      </c>
+      <c r="B10" s="14" t="n">
         <v>55.2626493990939</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="15" t="n">
         <v>1265.13934525168</v>
       </c>
     </row>
